--- a/RTC MultiConnection/proto/성능 테스트.xlsx
+++ b/RTC MultiConnection/proto/성능 테스트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ubion-sh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lee\study\Test-WebRtc\RTC MultiConnection\proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DDE87C-7411-4EB4-88CD-1B37CFBC1DB5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663419C9-32DC-47FB-B286-1ED8AD5D6290}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B999A838-1D08-4BBF-A85E-569F8CFFA738}"/>
+    <workbookView xWindow="4920" yWindow="2175" windowWidth="21600" windowHeight="11385" xr2:uid="{B999A838-1D08-4BBF-A85E-569F8CFFA738}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -609,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>

--- a/RTC MultiConnection/proto/성능 테스트.xlsx
+++ b/RTC MultiConnection/proto/성능 테스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lee\study\Test-WebRtc\RTC MultiConnection\proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663419C9-32DC-47FB-B286-1ED8AD5D6290}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DB2C63-C334-423E-AC32-2952678F6013}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="2175" windowWidth="21600" windowHeight="11385" xr2:uid="{B999A838-1D08-4BBF-A85E-569F8CFFA738}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B999A838-1D08-4BBF-A85E-569F8CFFA738}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,11 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
-  <si>
-    <t>IE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="27">
   <si>
     <t>Fire Fox</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +117,26 @@
   </si>
   <si>
     <t>Always</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Safari</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ext</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,237 +504,308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C998AB3B-3CE7-43CD-B034-BC71B811CA97}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -726,7 +813,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -734,7 +821,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>

--- a/RTC MultiConnection/proto/성능 테스트.xlsx
+++ b/RTC MultiConnection/proto/성능 테스트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lee\study\Test-WebRtc\RTC MultiConnection\proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DB2C63-C334-423E-AC32-2952678F6013}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5074E554-5DF3-4906-ADC9-99ACF60DDE3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B999A838-1D08-4BBF-A85E-569F8CFFA738}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -661,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>

--- a/RTC MultiConnection/proto/성능 테스트.xlsx
+++ b/RTC MultiConnection/proto/성능 테스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lee\study\Test-WebRtc\RTC MultiConnection\proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5074E554-5DF3-4906-ADC9-99ACF60DDE3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681BB57A-BF6B-4B6E-A14E-6626271F3611}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B999A838-1D08-4BBF-A85E-569F8CFFA738}"/>
+    <workbookView xWindow="4005" yWindow="2370" windowWidth="21585" windowHeight="11370" xr2:uid="{B999A838-1D08-4BBF-A85E-569F8CFFA738}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/RTC MultiConnection/proto/성능 테스트.xlsx
+++ b/RTC MultiConnection/proto/성능 테스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lee\study\Test-WebRtc\RTC MultiConnection\proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681BB57A-BF6B-4B6E-A14E-6626271F3611}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A02227F-727B-4277-875C-0A1ED0EC0623}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="2370" windowWidth="21585" windowHeight="11370" xr2:uid="{B999A838-1D08-4BBF-A85E-569F8CFFA738}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B999A838-1D08-4BBF-A85E-569F8CFFA738}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/RTC MultiConnection/proto/성능 테스트.xlsx
+++ b/RTC MultiConnection/proto/성능 테스트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lee\study\Test-WebRtc\RTC MultiConnection\proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A02227F-727B-4277-875C-0A1ED0EC0623}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B1041D-A072-4149-92A3-816D795E01F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B999A838-1D08-4BBF-A85E-569F8CFFA738}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="28">
   <si>
     <t>Fire Fox</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,7 +136,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ext</t>
+    <t>O</t>
+  </si>
+  <si>
+    <t>extantion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +510,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -634,7 +637,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -790,7 +793,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
